--- a/052c doc/dcp_model_version/dcp0第一次训练后绝对值分布.xlsx
+++ b/052c doc/dcp_model_version/dcp0第一次训练后绝对值分布.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3DB83A-19D5-4AAA-9941-999F49678858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC509E-8FF0-4076-8062-F37204D35DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13246,8 +13246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A661B8-07B1-4612-A921-D512DA0ED87E}">
   <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A257"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16211,7 +16211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ADCF07-4B2F-4C29-A519-B372A60A0958}">
   <dimension ref="A1:A128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A129"/>
     </sheetView>
   </sheetViews>
